--- a/src/flashcards_pmbok.xlsx
+++ b/src/flashcards_pmbok.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3E0714-D8CB-FD4B-B119-2EE57FEA1FFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="22820" yWindow="460" windowWidth="18960" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$158</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="290">
   <si>
     <t>4.1. Develop project charter
 4.2. Develop project management plan
@@ -34,18 +38,6 @@
     <t>4.1. Develop Project Charter: outputs</t>
   </si>
   <si>
-    <t>1. Business documents (business case)
-2. Agreements
-3. Enterprise environmental factors
-4. Organizational process assets</t>
-  </si>
-  <si>
-    <t>1. Expert judgment
-2. Data gathering (brainstorming, focus groups, interviews)
-3. Interpersonal and team skills (conflict management, facilitation, meeting management)
-4. Meetings</t>
-  </si>
-  <si>
     <t>1. Project charter
 2. Assumption log</t>
   </si>
@@ -65,12 +57,6 @@
 4. Organizational process assets</t>
   </si>
   <si>
-    <t>1. Expert judgment
-2. Data gathering (brainstorming, checklists, focus groups, interviews)
-3. Interpersonal and team skills (conflict management, facilitation, meeting management)
-4. Meetings</t>
-  </si>
-  <si>
     <t>1. Project management plan</t>
   </si>
   <si>
@@ -81,13 +67,6 @@
   </si>
   <si>
     <t>4.3. Direct and Manage Project Work: outputs</t>
-  </si>
-  <si>
-    <t>1. Project management plan
-2. Project documents (change log, lessons learned register, milestone list, project communications, project schedule, requirements traceability matrix, risk register, risk report)
-3. Approved change requests
-4. Enterprise environmental factors
-5. Organizational process assets</t>
   </si>
   <si>
     <t>1. Expert judgment
@@ -95,15 +74,6 @@
 3. Meetings</t>
   </si>
   <si>
-    <t>1. Deliverables
-2. Work performance data
-3. Issue log
-4. Change requests
-5. Project management plan updates
-6. Project documents updates (activity list, assumption log, lessons learned register, requirements documentation, risk register, stakeholder register)
-7. Organizational process assets updates</t>
-  </si>
-  <si>
     <t>4.4. Manage Project Knowledge: inputs</t>
   </si>
   <si>
@@ -138,13 +108,6 @@
   </si>
   <si>
     <t>4.7. Close Project or Phase: outputs</t>
-  </si>
-  <si>
-    <t>1. Project management plan
-2. Project documents (lessons learned register, project team assignments, resource breakdown structure, stakeholder register)
-3. Deliverables
-4. Enterprise environmental factors
-5. Organizational process assets</t>
   </si>
   <si>
     <t>1. Expert judgment
@@ -156,61 +119,6 @@
     <t>1. Lessons learned register
 2. Project management plan updates
 3. Organizational process assets updates</t>
-  </si>
-  <si>
-    <t>1. Project management plan
-2. Project documents (assumption log, basis of estimates, cost forecasts, issue log, lessons learned register, milestone list, quality reports, risk register, risk report, schedule forecasts)
-3. Work performance information
-4. Agreements
-5. Enterprise environmental factors
-6. Organizational process assets</t>
-  </si>
-  <si>
-    <t>1. Expert judgment
-2. Data analysis (alternatives analysis, cost-benefit analysis, earned value analysis, root cause analysis, trend analyais, variance analysis)
-3. Decision making
-4. Meetings</t>
-  </si>
-  <si>
-    <t>1. Work performance reports
-2. Change requests
-3. Project management plan updates
-4. Project documents updates (cost forecasts, issue log, lessons learned register, risk register, schedule forecasts)</t>
-  </si>
-  <si>
-    <t>1. Project management plan (change management plan, configuration management plan, scope baseline, schedule baseline, cost baseline)
-2. Project documents (basis of estimates, requirements traceability matrix, risk report)
-3. Work performance reports
-4. Change requests
-5. Enterprise environmental factors
-6. Organizational process assets</t>
-  </si>
-  <si>
-    <t>1. Expert judgment
-2. Change control tools
-3. Data analysis (alternatives analysis, cost-benefit analysis)
-4. Decision making
-5. Meetings</t>
-  </si>
-  <si>
-    <t>1. Approved change requests
-2. Project management plan updates
-3. Project documents updates (change log)</t>
-  </si>
-  <si>
-    <t>1. Project charter
-2. Project management plan
-3. Project documents (assumption log, basis of estimates, change log, issue log, lessons learned register, milestone list, project communications, quality control measurements, quality reports, requirements documentation, risk register, risk report)
-4. Accepted deliverables
-5. Business documents (business case, benefits management plan)
-6. Agreements
-7. Procurement documentation
-8. Organizational process assets</t>
-  </si>
-  <si>
-    <t>1. Expert judment
-2. Data analysis (document analysis, regression analysis, trend analysis, variance analysis)
-3. Meetings</t>
   </si>
   <si>
     <t>1. Project documents updates
@@ -288,17 +196,6 @@
     <t>5.1. Plan Scope Management: outputs</t>
   </si>
   <si>
-    <t>1. Project charter
-2. Project management plan (quality management plan, project life cycle description, development approach)
-3. Enterprise and environmental factors
-4. Organizational process assets</t>
-  </si>
-  <si>
-    <t>1. Expert judgment
-2. Data analysis (alternatives analysis)
-3. Meetings</t>
-  </si>
-  <si>
     <t>1. Scope management plan
 2. Requirements management plan</t>
   </si>
@@ -312,25 +209,6 @@
     <t>5.2. Collect Requirements: outputs</t>
   </si>
   <si>
-    <t>1. Project charter
-2. Project management plan (scope management plan, requirements management plan, stakeholder management plan)
-3. Project documents (assumption log, lessons learned register, stakeholder register)
-4. Business documents (business case)
-5. Agreements
-6. Enterprise environmental factors
-7. Organizational process assets</t>
-  </si>
-  <si>
-    <t>1. Expert judgment
-2. Data gathering (brainstorming, interviews, focus groups, questionnaires and surveys, benchmarking)
-3. Data analysis (document analysis)
-4. Decision making (voting, autocratic decision making, multicriteria decision analysis)
-5. Data representation (affinity diagrams, mind mapping)
-6. Interpersonal and team skills (nominal group technique, observation/conversation, facilitation)
-7. Context diagram
-8. Prototypes</t>
-  </si>
-  <si>
     <t>1. Requirements documentation
 2. Requirements traceability matrix</t>
   </si>
@@ -344,24 +222,6 @@
     <t>5.3. Define Scope: outputs</t>
   </si>
   <si>
-    <t>1. Project charter
-2. Project management plan (scope management plan)
-3. Project documents (assumption log, requirements documentation, risk register)
-4. Enterprise environmental factors
-5. Organizational process assets</t>
-  </si>
-  <si>
-    <t>1. Expert judgment
-2. Data analysis (alternatives analysis)
-3. Decision making (multicriteria decision making)
-4. Interpersonal and team skills (facilitation)
-5. Product analysis</t>
-  </si>
-  <si>
-    <t>1. Project scope statement
-2. Project documents update (assumption log, requirements documentation, requirements traceability matrix, stakeholder register)</t>
-  </si>
-  <si>
     <t>5.4. Create WBS: inputs</t>
   </si>
   <si>
@@ -369,22 +229,12 @@
   </si>
   <si>
     <t>5.4. Create WBS: outputs</t>
-  </si>
-  <si>
-    <t>1. Project management plan (scope management plan)
-2. Project documents (project scope statement, requirements documentation)
-3. Enterprise environmental factors
-4. Organizational process assets</t>
   </si>
   <si>
     <t>1. Expert judgment
 2. Decomposition</t>
   </si>
   <si>
-    <t>1. Scope baseline
-2. Project documents updates (assumption log, requirements documentation)</t>
-  </si>
-  <si>
     <t>5.5. Validate Scope: inputs</t>
   </si>
   <si>
@@ -394,22 +244,6 @@
     <t>5.5. Validate Scope: outputs</t>
   </si>
   <si>
-    <t>1. Project management plan (scope management plan, requirements management plan, scope baseline)
-2. Project documents (lessons learned register, quality reports, requirements documentation, requirements traceability matrix)
-3. Verified deliverables
-4. Work performance data</t>
-  </si>
-  <si>
-    <t>1. Inspection
-2. Decision making (voting)</t>
-  </si>
-  <si>
-    <t>1. Accepted deliverables
-2. Work performance information
-3. Change requests
-4. Project document updates (lessons learned register, requirements documentation, requirements traceability matrix)</t>
-  </si>
-  <si>
     <t>5.6. Control Scope: inputs</t>
   </si>
   <si>
@@ -417,21 +251,6 @@
   </si>
   <si>
     <t>5.6. Control Scope: outputs</t>
-  </si>
-  <si>
-    <t>1. Project management plan (scope management plan, requirements management plan, change management plan, configuration management plan, scope baseline, performance measurement baseline)
-2. Project documents (lessons learned register, requirements documentation, requirements traceability matrix)
-3. Work performance data
-4. Organizational process assets</t>
-  </si>
-  <si>
-    <t>1. Data analysis (variance analysis, trend analysis)</t>
-  </si>
-  <si>
-    <t>1. Work performance information
-2. Change requests
-3. Project management plan updates (scope management plan, scope baseline, schedule baseline, cost baseline, performance measurement baseline)
-4. Project documents updates (lessons learned register, requirements documentation, requirements traceability matrix)</t>
   </si>
   <si>
     <t>6.1. Plan Schedule Management: inputs</t>
@@ -1181,11 +1000,378 @@
 4. Interpersonal and team skills
 5. Meetings</t>
   </si>
+  <si>
+    <t>1. Risk management plan</t>
+  </si>
+  <si>
+    <t>1. Project management plan
+2. Project documents
+3. Agreements
+4. Procurement documentation
+5. Enterprise environmental factors
+6. Organizational process assets</t>
+  </si>
+  <si>
+    <t>1. Risk register
+2. Risk report
+3. Project documents updates</t>
+  </si>
+  <si>
+    <t>1. Expert judgment
+2. Data gathering
+3. Data analysis
+4. Interpersonal and team skills
+5. Risk categorization
+6. Data representation
+7. Meetings</t>
+  </si>
+  <si>
+    <t>1. Project documents updates</t>
+  </si>
+  <si>
+    <t>1. Expert judgment
+2. Data gathering
+3. Data analysis
+4. Interpersonal and team skills
+5. Prompt lists
+6. Meetings</t>
+  </si>
+  <si>
+    <t>1. Expert judgment
+2. Data gathering
+3. Interpersonal and team skills
+4. Representations of uncertainty
+5. Data analysis</t>
+  </si>
+  <si>
+    <t>1. Expert judgment
+2. Data gathering
+3. Interpersonal and team skills
+4. Strategies for threats
+5. Strategies for opportunities
+6. Contingent response strategies
+7. Strategies for overall project risk
+8. Data analysis
+9. Decision making</t>
+  </si>
+  <si>
+    <t>1. Change requests
+2. Project management plan updates
+3. Project documents updates</t>
+  </si>
+  <si>
+    <t>1. Expert judgment
+2. Interpersonal and team skills
+3. Project management information system</t>
+  </si>
+  <si>
+    <t>1. Change requests
+2. Project documents updates</t>
+  </si>
+  <si>
+    <t>1. Project management plan
+2. Project documents
+3. Work performance data
+4. Work performance reports</t>
+  </si>
+  <si>
+    <t>1. Data analysis
+2. Audits
+3. Meetings</t>
+  </si>
+  <si>
+    <t>1. Work performance information
+2. Change requests
+3. Project management plan updates
+4. Project documents updates
+5. Organizational process assets updates</t>
+  </si>
+  <si>
+    <t>1. Project charter
+2. Business documents
+3. Project management plan
+4. Project documents
+5. Enterprise environmental factors
+6. Organizational process assets</t>
+  </si>
+  <si>
+    <t>1. Expert judgment
+2. Data gathering
+3. Data analysis
+4. Source selection analysis
+5. Meetings</t>
+  </si>
+  <si>
+    <t>1. Procurement management plan
+2. Procurement strategy
+3. Bid documents
+4. Procurement statement of work
+5. Source selection criteria
+6. Make-or-buy decisions
+7. Independent cost estimates
+8. Change requests
+9. Project documents updates
+10. Organizational process assets updates</t>
+  </si>
+  <si>
+    <t>1. Project management plan
+2. Project documents
+3. Procurement documentation
+4. Seller proposals
+5. Enterprise environmental factors
+6. Organizational process assets</t>
+  </si>
+  <si>
+    <t>1. Expert judgment
+2. Advertising
+3. Bidder conferences
+4. Data analysis
+5. Interpersonal and team skills</t>
+  </si>
+  <si>
+    <t>1. Selected sellers
+2. Agreements
+3. Change requests
+4. Project management plan updates
+5. Project documents updates
+6. Organizational process assets updates</t>
+  </si>
+  <si>
+    <t>1. Project management plan
+2. Project documents
+3. Agreements
+4. Procurement documentation
+5. Approved change requests
+6. Work performance data
+7. Enterprise environmental factors
+8. Organizational process assets</t>
+  </si>
+  <si>
+    <t>1. Expert judgment
+2. Claims administration
+3. Data analysis
+4. Inspection
+5. Audits</t>
+  </si>
+  <si>
+    <t>1. Closed procurements
+2. Work performance information
+3. Procurement documentation updates
+4. Change requests
+5. Project management plan updates
+6. Project documents updates
+7. Organizational process assets updates</t>
+  </si>
+  <si>
+    <t>1. Project charter
+2. Business documents
+3. Project management plan
+4. Project documents
+5. Agreements
+6. Enterprise environmental factors
+7. Organizational process assets</t>
+  </si>
+  <si>
+    <t>1. Expert judgment
+2. Data gathering
+3. Data analysis
+4. Data representation
+5. Meetings</t>
+  </si>
+  <si>
+    <t>1. Stakeholder register
+2. Change requests
+3. Project management plan updates
+4. Project documents updates</t>
+  </si>
+  <si>
+    <t>1. Project charter
+2. Project management plan
+3. Project documents
+4. Agreements
+5. Enterprise environmental factors
+6. Organizational process assets</t>
+  </si>
+  <si>
+    <t>1. Expert judgment
+2. Data gathering
+3. Data analysis
+4. Decision making
+5. Data representation
+6. Meetings</t>
+  </si>
+  <si>
+    <t>1. Stakeholder engagement plan</t>
+  </si>
+  <si>
+    <t>1. Expert judgment
+2. Communication skills
+3. Interpersonal and team skills
+4. Ground rules
+5. Meetings</t>
+  </si>
+  <si>
+    <t>1. Data analysis
+2. Decision making
+3. Data representation
+4. Communication skills
+5. Interpersonal and team skills
+6. Meetings</t>
+  </si>
+  <si>
+    <t>1. Business documents
+2. Agreements
+3. Enterprise environmental factors
+4. Organizational process assets</t>
+  </si>
+  <si>
+    <t>1. Expert judgment
+2. Data gathering
+3. Interpersonal and team skills
+4. Meetings</t>
+  </si>
+  <si>
+    <t>1. Project management plan
+2. Project documents
+3. Approved change requests
+4. Enterprise environmental factors
+5. Organizational process assets</t>
+  </si>
+  <si>
+    <t>1. Deliverables
+2. Work performance data
+3. Issue log
+4. Change requests
+5. Project management plan updates
+6. Project documents updates
+7. Organizational process assets updates</t>
+  </si>
+  <si>
+    <t>1. Project management plan
+2. Project documents
+3. Deliverables
+4. Enterprise environmental factors
+5. Organizational process assets</t>
+  </si>
+  <si>
+    <t>1. Project management plan
+2. Project documents
+3. Work performance information
+4. Agreements
+5. Enterprise environmental factors
+6. Organizational process assets</t>
+  </si>
+  <si>
+    <t>1. Expert judgment
+2. Data analysis
+3. Decision making
+4. Meetings</t>
+  </si>
+  <si>
+    <t>1. Work performance reports
+2. Change requests
+3. Project management plan updates
+4. Project documents updates</t>
+  </si>
+  <si>
+    <t>1. Project management plan
+2. Project documents
+3. Work performance reports
+4. Change requests
+5. Enterprise environmental factors
+6. Organizational process assets</t>
+  </si>
+  <si>
+    <t>1. Expert judgment
+2. Change control tools
+3. Data analysis
+4. Decision making
+5. Meetings</t>
+  </si>
+  <si>
+    <t>1. Approved change requests
+2. Project management plan updates
+3. Project documents updates</t>
+  </si>
+  <si>
+    <t>1. Project charter
+2. Project management plan
+3. Project documents
+4. Accepted deliverables
+5. Business documents
+6. Agreements
+7. Procurement documentation
+8. Organizational process assets</t>
+  </si>
+  <si>
+    <t>1. Expert judment
+2. Data analysis
+3. Meetings</t>
+  </si>
+  <si>
+    <t>1. Project charter
+2. Project management plan
+3. Enterprise and environmental factors
+4. Organizational process assets</t>
+  </si>
+  <si>
+    <t>1. Project charter
+2. Project management plan
+3. Project documents
+4. Business documents
+5. Agreements
+6. Enterprise environmental factors
+7. Organizational process assets</t>
+  </si>
+  <si>
+    <t>1. Expert judgment
+2. Data gathering
+3. Data analysis
+4. Decision making
+5. Data representation
+6. Interpersonal and team skills
+7. Context diagram
+8. Prototypes</t>
+  </si>
+  <si>
+    <t>1. Expert judgment
+2. Data analysis
+3. Decision making
+4. Interpersonal and team skills
+5. Product analysis</t>
+  </si>
+  <si>
+    <t>1. Project scope statement
+2. Project documents update</t>
+  </si>
+  <si>
+    <t>1. Scope baseline
+2. Project documents updates</t>
+  </si>
+  <si>
+    <t>1. Project management plan
+2. Project documents
+3. Verified deliverables
+4. Work performance data</t>
+  </si>
+  <si>
+    <t>1. Inspection
+2. Decision making</t>
+  </si>
+  <si>
+    <t>1. Accepted deliverables
+2. Work performance information
+3. Change requests
+4. Project document updates</t>
+  </si>
+  <si>
+    <t>1. Data analysis</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1324,6 +1510,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1359,6 +1562,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1534,1163 +1754,1290 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C158"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B115" sqref="B115"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B159" sqref="B159"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="60.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="50.7109375" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="2" width="60.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="50.6640625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="112" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="112" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="B11" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="B15" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="B16" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B17" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="128" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="112" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="128" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="128" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="128" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="112" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="2" t="s">
+    <row r="63" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="112" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="2" t="s">
+    <row r="76" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="112" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="128" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="112" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="2" t="s">
+    <row r="86" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="112" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="128" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="128" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="2" t="s">
+    <row r="105" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="128" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="112" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="112" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="2" t="s">
+    <row r="115" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="112" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="2" t="s">
+    <row r="137" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="160" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+      <c r="A142" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="128" x14ac:dyDescent="0.2">
+      <c r="A143" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="112" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B74" s="2" t="s">
+    <row r="147" spans="1:2" ht="112" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A152" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A154" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A155" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
+    <row r="157" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
+      <c r="B157" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A146" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="2" t="s">
-        <v>195</v>
+      <c r="B158" s="2" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C158" xr:uid="{F1276779-62BB-C843-A159-E464F3D80CC2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
